--- a/biology/Zoologie/Baie_de_Samborombón/Baie_de_Samborombón.xlsx
+++ b/biology/Zoologie/Baie_de_Samborombón/Baie_de_Samborombón.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baie_de_Samboromb%C3%B3n</t>
+          <t>Baie_de_Samborombón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La baie de Samborombón (en espagnol : Bahía de Samborombón) est une baie de l'Atlantique sud située en Argentine, au sud de l'embouchure du Río de la Plata. Elle se trouve à environ 160 km au sud-est de Buenos Aires. La baie a 135 km de long et s'étend de Punta Piedras au nord à Punta Rasa au sud, point de départ du Cabo San Antonio (cap San Antonio).
 La baie reçoit plusieurs fleuves et cours d'eau, dont le Río Salado et le Río Samborombón.
 Les coordonnées géographiques sont : 56°45' ouest - 35°27' sud (Punta Piedras) et 56°35' ouest - 36°22' sud (Punta Rasa)
-La baie a été déclarée site Ramsar (Convention de Ramsar) sur une superficie de 244 000 hectares (2 440 km2) depuis 1997[1].
+La baie a été déclarée site Ramsar (Convention de Ramsar) sur une superficie de 244 000 hectares (2 440 km2) depuis 1997.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baie_de_Samboromb%C3%B3n</t>
+          <t>Baie_de_Samborombón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description du site</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La baie de Samborombón fait partie du Río de la Plata.
 La zone du site Ramsar comprend une ligne de côte de plus ou moins 180 km. La frange terrestre a une largeur variable de 2 à 23 km.. La portion de la baie elle-même se prolonge jusqu'à l'isobathe de 3,5 mètres. La zone est caractérisée par des bañados ou étangs, des marais salés et des cangrejales ou régions à crabes.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baie_de_Samboromb%C3%B3n</t>
+          <t>Baie_de_Samborombón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone comprend des prairies humides, avec une prédominances des espèces de Cyperus et de joncs (Juncus). Ces prairies sont parfois salées (Praderas Saladas), avec alors prédominance de distichlis spicata et d'hordeum stenostachys.
 On y trouve aussi des prairies humides avec lagunes temporaires ou permanentes (Juncal, Totoral ou Espadañal).
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baie_de_Samboromb%C3%B3n</t>
+          <t>Baie_de_Samborombón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En ce qui concerne la faune ichtyque, la baie de Samborombón représente un domaine de ponte d'une ichtyofaune très importante du point de vue commercial. Citons le sciaenidae Corvina rubia, le Micropogonias furnieri, l'espèce qui dans la région souffre de la plus forte pression de capture.
 Une espèce de mammifères dont la conservation est d'importance majeure[réf. nécessaire] est présent, le cerf des pampas, plus précisément la sous-espèce ozotocerus bezoarticus celer, espèce quasi-menacée.
